--- a/reports/tables/table_one.xlsx
+++ b/reports/tables/table_one.xlsx
@@ -1,20 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssomani/research/heartlab/statins_reddit/reports/tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C0FE6B-173B-EC49-A628-8D82DBE95B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="31080" windowHeight="21640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="223">
   <si>
     <t>Grouped by type</t>
   </si>
@@ -145,314 +166,551 @@
     <t>todayilearned</t>
   </si>
   <si>
+    <t>9272 (90.6)</t>
+  </si>
+  <si>
+    <t>961 (9.4)</t>
+  </si>
+  <si>
+    <t>929.4 (1377.9)</t>
+  </si>
+  <si>
+    <t>434 (4.2)</t>
+  </si>
+  <si>
+    <t>389 (3.8)</t>
+  </si>
+  <si>
+    <t>5 (0.0)</t>
+  </si>
+  <si>
+    <t>1295 (12.7)</t>
+  </si>
+  <si>
+    <t>4 (0.0)</t>
+  </si>
+  <si>
+    <t>73 (0.7)</t>
+  </si>
+  <si>
+    <t>10 (0.1)</t>
+  </si>
+  <si>
+    <t>2 (0.0)</t>
+  </si>
+  <si>
+    <t>71 (0.7)</t>
+  </si>
+  <si>
+    <t>177 (1.7)</t>
+  </si>
+  <si>
+    <t>181 (1.8)</t>
+  </si>
+  <si>
+    <t>7571 (74.0)</t>
+  </si>
+  <si>
+    <t>21 (0.2)</t>
+  </si>
+  <si>
+    <t>136 (1.3)</t>
+  </si>
+  <si>
+    <t>2182 (21.3)</t>
+  </si>
+  <si>
+    <t>238 (2.3)</t>
+  </si>
+  <si>
+    <t>112 (1.1)</t>
+  </si>
+  <si>
+    <t>230 (2.2)</t>
+  </si>
+  <si>
+    <t>446 (4.4)</t>
+  </si>
+  <si>
+    <t>367 (3.6)</t>
+  </si>
+  <si>
+    <t>165 (1.6)</t>
+  </si>
+  <si>
+    <t>375 (3.7)</t>
+  </si>
+  <si>
+    <t>879 (8.6)</t>
+  </si>
+  <si>
+    <t>2364 (23.1)</t>
+  </si>
+  <si>
+    <t>560 (5.5)</t>
+  </si>
+  <si>
+    <t>75 (0.7)</t>
+  </si>
+  <si>
+    <t>443 (4.3)</t>
+  </si>
+  <si>
+    <t>503 (4.9)</t>
+  </si>
+  <si>
+    <t>706 (6.9)</t>
+  </si>
+  <si>
+    <t>68 (0.7)</t>
+  </si>
+  <si>
+    <t>3 (0.0)</t>
+  </si>
+  <si>
+    <t>381 (3.7)</t>
+  </si>
+  <si>
+    <t>4.6 (59.3)</t>
+  </si>
+  <si>
+    <t>5188 (50.7)</t>
+  </si>
+  <si>
+    <t>9272 (100.0)</t>
+  </si>
+  <si>
+    <t>839.9 (1122.1)</t>
+  </si>
+  <si>
+    <t>367 (4.0)</t>
+  </si>
+  <si>
+    <t>357 (3.9)</t>
+  </si>
+  <si>
+    <t>5 (0.1)</t>
+  </si>
+  <si>
+    <t>1218 (13.1)</t>
+  </si>
+  <si>
+    <t>65 (0.7)</t>
+  </si>
+  <si>
+    <t>56 (0.6)</t>
+  </si>
+  <si>
+    <t>141 (1.5)</t>
+  </si>
+  <si>
+    <t>138 (1.5)</t>
+  </si>
+  <si>
+    <t>6891 (74.3)</t>
+  </si>
+  <si>
+    <t>19 (0.2)</t>
+  </si>
+  <si>
+    <t>135 (1.5)</t>
+  </si>
+  <si>
+    <t>1875 (20.2)</t>
+  </si>
+  <si>
+    <t>230 (2.5)</t>
+  </si>
+  <si>
+    <t>105 (1.1)</t>
+  </si>
+  <si>
+    <t>208 (2.2)</t>
+  </si>
+  <si>
+    <t>426 (4.6)</t>
+  </si>
+  <si>
+    <t>326 (3.5)</t>
+  </si>
+  <si>
+    <t>154 (1.7)</t>
+  </si>
+  <si>
+    <t>355 (3.8)</t>
+  </si>
+  <si>
+    <t>748 (8.1)</t>
+  </si>
+  <si>
+    <t>2051 (22.1)</t>
+  </si>
+  <si>
+    <t>504 (5.4)</t>
+  </si>
+  <si>
+    <t>73 (0.8)</t>
+  </si>
+  <si>
+    <t>443 (4.8)</t>
+  </si>
+  <si>
+    <t>486 (5.2)</t>
+  </si>
+  <si>
+    <t>704 (7.6)</t>
+  </si>
+  <si>
+    <t>1 (0.0)</t>
+  </si>
+  <si>
+    <t>380 (4.1)</t>
+  </si>
+  <si>
+    <t>3.4 (53.5)</t>
+  </si>
+  <si>
+    <t>4700 (50.7)</t>
+  </si>
+  <si>
+    <t>961 (100.0)</t>
+  </si>
+  <si>
+    <t>1792.9 (2693.5)</t>
+  </si>
+  <si>
+    <t>67 (7.0)</t>
+  </si>
+  <si>
+    <t>32 (3.3)</t>
+  </si>
+  <si>
+    <t>77 (8.0)</t>
+  </si>
+  <si>
+    <t>1 (0.1)</t>
+  </si>
+  <si>
+    <t>8 (0.8)</t>
+  </si>
+  <si>
+    <t>15 (1.6)</t>
+  </si>
+  <si>
+    <t>36 (3.7)</t>
+  </si>
+  <si>
+    <t>43 (4.5)</t>
+  </si>
+  <si>
+    <t>680 (70.8)</t>
+  </si>
+  <si>
+    <t>2 (0.2)</t>
+  </si>
+  <si>
+    <t>307 (31.9)</t>
+  </si>
+  <si>
+    <t>7 (0.7)</t>
+  </si>
+  <si>
+    <t>22 (2.3)</t>
+  </si>
+  <si>
+    <t>20 (2.1)</t>
+  </si>
+  <si>
+    <t>41 (4.3)</t>
+  </si>
+  <si>
+    <t>11 (1.1)</t>
+  </si>
+  <si>
+    <t>131 (13.6)</t>
+  </si>
+  <si>
+    <t>313 (32.6)</t>
+  </si>
+  <si>
+    <t>56 (5.8)</t>
+  </si>
+  <si>
+    <t>17 (1.8)</t>
+  </si>
+  <si>
+    <t>15.7 (98.7)</t>
+  </si>
+  <si>
+    <t>779 (81.1)</t>
+  </si>
+  <si>
     <t>9364 (88.7)</t>
   </si>
   <si>
+    <t>9364 (100.0)</t>
+  </si>
+  <si>
     <t>1189 (11.3)</t>
   </si>
   <si>
+    <t>1189 (100.0)</t>
+  </si>
+  <si>
     <t>901.9 (1365.8)</t>
   </si>
   <si>
+    <t>832.4 (1119.2)</t>
+  </si>
+  <si>
+    <t>1449.7 (2521.8)</t>
+  </si>
+  <si>
     <t>476 (4.5)</t>
   </si>
   <si>
+    <t>373 (4.0)</t>
+  </si>
+  <si>
+    <t>103 (8.7)</t>
+  </si>
+  <si>
     <t>403 (3.8)</t>
   </si>
   <si>
+    <t>365 (3.9)</t>
+  </si>
+  <si>
+    <t>38 (3.2)</t>
+  </si>
+  <si>
     <t>9 (0.1)</t>
   </si>
   <si>
+    <t>4 (0.3)</t>
+  </si>
+  <si>
     <t>1329 (12.6)</t>
   </si>
   <si>
-    <t>4 (0.0)</t>
+    <t>1241 (13.3)</t>
+  </si>
+  <si>
+    <t>88 (7.4)</t>
   </si>
   <si>
     <t>78 (0.7)</t>
   </si>
   <si>
+    <t>13 (1.1)</t>
+  </si>
+  <si>
     <t>12 (0.1)</t>
   </si>
   <si>
-    <t>2 (0.0)</t>
-  </si>
-  <si>
     <t>77 (0.7)</t>
   </si>
   <si>
+    <t>21 (1.8)</t>
+  </si>
+  <si>
     <t>184 (1.7)</t>
   </si>
   <si>
+    <t>142 (1.5)</t>
+  </si>
+  <si>
+    <t>42 (3.5)</t>
+  </si>
+  <si>
     <t>209 (2.0)</t>
   </si>
   <si>
+    <t>139 (1.5)</t>
+  </si>
+  <si>
+    <t>70 (5.9)</t>
+  </si>
+  <si>
     <t>7748 (73.4)</t>
   </si>
   <si>
+    <t>6944 (74.2)</t>
+  </si>
+  <si>
+    <t>804 (67.6)</t>
+  </si>
+  <si>
     <t>22 (0.2)</t>
   </si>
   <si>
+    <t>3 (0.3)</t>
+  </si>
+  <si>
     <t>144 (1.4)</t>
   </si>
   <si>
+    <t>137 (1.5)</t>
+  </si>
+  <si>
+    <t>7 (0.6)</t>
+  </si>
+  <si>
     <t>2242 (21.2)</t>
   </si>
   <si>
+    <t>1900 (20.3)</t>
+  </si>
+  <si>
+    <t>342 (28.8)</t>
+  </si>
+  <si>
     <t>321 (3.0)</t>
   </si>
   <si>
+    <t>231 (2.5)</t>
+  </si>
+  <si>
+    <t>90 (7.6)</t>
+  </si>
+  <si>
     <t>115 (1.1)</t>
   </si>
   <si>
+    <t>10 (0.8)</t>
+  </si>
+  <si>
     <t>233 (2.2)</t>
   </si>
   <si>
+    <t>25 (2.1)</t>
+  </si>
+  <si>
     <t>446 (4.2)</t>
   </si>
   <si>
+    <t>426 (4.5)</t>
+  </si>
+  <si>
+    <t>20 (1.7)</t>
+  </si>
+  <si>
     <t>371 (3.5)</t>
   </si>
   <si>
+    <t>329 (3.5)</t>
+  </si>
+  <si>
     <t>168 (1.6)</t>
   </si>
   <si>
+    <t>154 (1.6)</t>
+  </si>
+  <si>
+    <t>14 (1.2)</t>
+  </si>
+  <si>
     <t>388 (3.7)</t>
   </si>
   <si>
+    <t>364 (3.9)</t>
+  </si>
+  <si>
+    <t>24 (2.0)</t>
+  </si>
+  <si>
     <t>888 (8.4)</t>
   </si>
   <si>
+    <t>754 (8.1)</t>
+  </si>
+  <si>
+    <t>134 (11.3)</t>
+  </si>
+  <si>
     <t>2375 (22.5)</t>
   </si>
   <si>
+    <t>2062 (22.0)</t>
+  </si>
+  <si>
+    <t>313 (26.3)</t>
+  </si>
+  <si>
     <t>573 (5.4)</t>
   </si>
   <si>
+    <t>506 (5.4)</t>
+  </si>
+  <si>
+    <t>67 (5.6)</t>
+  </si>
+  <si>
+    <t>5 (0.4)</t>
+  </si>
+  <si>
     <t>471 (4.5)</t>
   </si>
   <si>
+    <t>453 (4.8)</t>
+  </si>
+  <si>
+    <t>18 (1.5)</t>
+  </si>
+  <si>
     <t>507 (4.8)</t>
   </si>
   <si>
+    <t>490 (5.2)</t>
+  </si>
+  <si>
+    <t>17 (1.4)</t>
+  </si>
+  <si>
     <t>753 (7.1)</t>
   </si>
   <si>
+    <t>711 (7.6)</t>
+  </si>
+  <si>
     <t>69 (0.7)</t>
   </si>
   <si>
+    <t>8 (0.7)</t>
+  </si>
+  <si>
     <t>402 (3.8)</t>
   </si>
   <si>
+    <t>392 (4.2)</t>
+  </si>
+  <si>
     <t>4.7 (59.4)</t>
   </si>
   <si>
+    <t>3.4 (53.2)</t>
+  </si>
+  <si>
+    <t>15.0 (94.1)</t>
+  </si>
+  <si>
     <t>5337 (50.6)</t>
   </si>
   <si>
-    <t>9364 (100.0)</t>
-  </si>
-  <si>
-    <t>832.4 (1119.2)</t>
-  </si>
-  <si>
-    <t>373 (4.0)</t>
-  </si>
-  <si>
-    <t>365 (3.9)</t>
-  </si>
-  <si>
-    <t>5 (0.1)</t>
-  </si>
-  <si>
-    <t>1241 (13.3)</t>
-  </si>
-  <si>
-    <t>3 (0.0)</t>
-  </si>
-  <si>
-    <t>65 (0.7)</t>
-  </si>
-  <si>
-    <t>10 (0.1)</t>
-  </si>
-  <si>
-    <t>56 (0.6)</t>
-  </si>
-  <si>
-    <t>142 (1.5)</t>
-  </si>
-  <si>
-    <t>139 (1.5)</t>
-  </si>
-  <si>
-    <t>6944 (74.2)</t>
-  </si>
-  <si>
-    <t>19 (0.2)</t>
-  </si>
-  <si>
-    <t>137 (1.5)</t>
-  </si>
-  <si>
-    <t>1900 (20.3)</t>
-  </si>
-  <si>
-    <t>231 (2.5)</t>
-  </si>
-  <si>
-    <t>105 (1.1)</t>
-  </si>
-  <si>
-    <t>208 (2.2)</t>
-  </si>
-  <si>
-    <t>426 (4.5)</t>
-  </si>
-  <si>
-    <t>329 (3.5)</t>
-  </si>
-  <si>
-    <t>154 (1.6)</t>
-  </si>
-  <si>
-    <t>364 (3.9)</t>
-  </si>
-  <si>
-    <t>754 (8.1)</t>
-  </si>
-  <si>
-    <t>2062 (22.0)</t>
-  </si>
-  <si>
-    <t>506 (5.4)</t>
-  </si>
-  <si>
-    <t>73 (0.8)</t>
-  </si>
-  <si>
-    <t>453 (4.8)</t>
-  </si>
-  <si>
-    <t>490 (5.2)</t>
-  </si>
-  <si>
-    <t>711 (7.6)</t>
-  </si>
-  <si>
-    <t>68 (0.7)</t>
-  </si>
-  <si>
-    <t>1 (0.0)</t>
-  </si>
-  <si>
-    <t>392 (4.2)</t>
-  </si>
-  <si>
-    <t>3.4 (53.2)</t>
-  </si>
-  <si>
     <t>4747 (50.7)</t>
   </si>
   <si>
-    <t>1189 (100.0)</t>
-  </si>
-  <si>
-    <t>1449.7 (2521.8)</t>
-  </si>
-  <si>
-    <t>103 (8.7)</t>
-  </si>
-  <si>
-    <t>38 (3.2)</t>
-  </si>
-  <si>
-    <t>4 (0.3)</t>
-  </si>
-  <si>
-    <t>88 (7.4)</t>
-  </si>
-  <si>
-    <t>1 (0.1)</t>
-  </si>
-  <si>
-    <t>13 (1.1)</t>
-  </si>
-  <si>
-    <t>2 (0.2)</t>
-  </si>
-  <si>
-    <t>21 (1.8)</t>
-  </si>
-  <si>
-    <t>42 (3.5)</t>
-  </si>
-  <si>
-    <t>70 (5.9)</t>
-  </si>
-  <si>
-    <t>804 (67.6)</t>
-  </si>
-  <si>
-    <t>3 (0.3)</t>
-  </si>
-  <si>
-    <t>7 (0.6)</t>
-  </si>
-  <si>
-    <t>342 (28.8)</t>
-  </si>
-  <si>
-    <t>90 (7.6)</t>
-  </si>
-  <si>
-    <t>10 (0.8)</t>
-  </si>
-  <si>
-    <t>25 (2.1)</t>
-  </si>
-  <si>
-    <t>20 (1.7)</t>
-  </si>
-  <si>
-    <t>14 (1.2)</t>
-  </si>
-  <si>
-    <t>24 (2.0)</t>
-  </si>
-  <si>
-    <t>134 (11.3)</t>
-  </si>
-  <si>
-    <t>313 (26.3)</t>
-  </si>
-  <si>
-    <t>67 (5.6)</t>
-  </si>
-  <si>
-    <t>5 (0.4)</t>
-  </si>
-  <si>
-    <t>18 (1.5)</t>
-  </si>
-  <si>
-    <t>17 (1.4)</t>
-  </si>
-  <si>
-    <t>8 (0.7)</t>
-  </si>
-  <si>
-    <t>15.0 (94.1)</t>
-  </si>
-  <si>
     <t>916 (77.0)</t>
+  </si>
+  <si>
+    <t>0 (0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +725,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -504,9 +775,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -515,6 +800,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -561,7 +854,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -593,9 +886,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,6 +938,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -802,22 +1131,925 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:E41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4">
+        <v>10233</v>
+      </c>
+      <c r="D4" s="4">
+        <v>9272</v>
+      </c>
+      <c r="E4" s="4">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="A21:A39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A6C433-CDAB-6144-86BB-DB2473F05927}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6454C810-D6A1-C94B-813B-014D495FEABE}">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -829,7 +2061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -844,111 +2076,111 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
@@ -956,44 +2188,44 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="D14" t="s">
-        <v>86</v>
-      </c>
       <c r="E14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1004,396 +2236,396 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="D16" t="s">
         <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="D20" t="s">
         <v>91</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="E22" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="D24" t="s">
         <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
         <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>183</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
       <c r="B30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="E30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="E31" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="D33" t="s">
         <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
       <c r="B34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>204</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
       <c r="B35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
       <c r="B36" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
       <c r="B38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
       <c r="B39" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
